--- a/201025_Results_Cali/output/m2/21102025_mod2_by_travel_mode.xlsx
+++ b/201025_Results_Cali/output/m2/21102025_mod2_by_travel_mode.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2182,27 +2182,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>49 (100.0%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>136 (100.0%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>66 (100.0%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (100.0%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>103 (100.0%)</t>
         </is>
       </c>
       <c r="J37">
@@ -2272,37 +2272,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (9.7%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>49 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>136 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>66 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>7 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>103 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J39">
@@ -2312,22 +2312,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_auto_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de automóviles (agregado)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7 (9.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>49 (36.0%)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>49 (36.0%)</t>
+          <t>20 (14.7%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>20 (14.7%)</t>
+          <t>18 (13.2%)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>Eléctrica / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>18 (13.2%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2522,37 +2522,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eléctrica / No aplica</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>72 (100.0%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>49 (100.0%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>66 (100.0%)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (100.0%)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>103 (100.0%)</t>
         </is>
       </c>
       <c r="J44">
@@ -2672,37 +2672,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>72 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>49 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>66 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>4 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>103 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J47">
@@ -2712,98 +2712,98 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_camion_agregado</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de camiones (futuro)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>72 (100.0%)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>49 (100.0%)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>136 (100.0%)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>66 (100.0%)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (100.0%)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="J48">
-        <v>0</v>
+          <t>103 (100.0%)</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>modelo_vehiculo_agregado</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Modelo del vehículo (agrupado)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>2005 - 2010</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>72 (100.0%)</t>
+          <t>9 (12.5%)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>49 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>136 (100.0%)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>66 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>7 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>103 (100.0%)</t>
-        </is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="J49">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2005 - 2010</t>
+          <t>2011 - 2015</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>9 (12.5%)</t>
+          <t>13 (18.1%)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6 (4.4%)</t>
+          <t>23 (16.9%)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2011 - 2015</t>
+          <t>2016 - 2020</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13 (18.1%)</t>
+          <t>19 (26.4%)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>23 (16.9%)</t>
+          <t>36 (26.5%)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2016 - 2020</t>
+          <t>2021 o más reciente</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>19 (26.4%)</t>
+          <t>17 (23.6%)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>36 (26.5%)</t>
+          <t>58 (42.6%)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021 o más reciente</t>
+          <t>Anterior a 2005</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17 (23.6%)</t>
+          <t>7 (9.7%)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>58 (42.6%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3019,37 +3019,37 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Anterior a 2005</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7 (9.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>49 (100.0%)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5 (3.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>66 (100.0%)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (100.0%)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>103 (100.0%)</t>
         </is>
       </c>
       <c r="J54">
@@ -3069,37 +3069,37 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (9.7%)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>49 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>66 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>7 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>103 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J55">
@@ -3109,32 +3109,32 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>modelo_vehiculo_agregado</t>
+          <t>p19comuna</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modelo del vehículo (agrupado)</t>
+          <t>Comuna donde vive</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Comuna 1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7 (9.7%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3149,11 +3149,11 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.9%)</t>
         </is>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="57">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Comuna 1</t>
+          <t>Comuna 10</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3179,17 +3179,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5 (3.7%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (12.1%)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>3 (2.9%)</t>
+          <t>4 (3.9%)</t>
         </is>
       </c>
       <c r="J57">
@@ -3219,37 +3219,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Comuna 10</t>
+          <t>Comuna 11</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>8 (12.1%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>4 (3.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J58">
@@ -3269,22 +3269,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Comuna 11</t>
+          <t>Comuna 12</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>6 (4.4%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="J59">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Comuna 12</t>
+          <t>Comuna 13</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3339,17 +3339,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>5 (7.6%)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>6 (5.8%)</t>
         </is>
       </c>
       <c r="J60">
@@ -3369,12 +3369,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Comuna 13</t>
+          <t>Comuna 14</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3389,17 +3389,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>5 (7.6%)</t>
+          <t>3 (4.5%)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>6 (5.8%)</t>
+          <t>9 (8.7%)</t>
         </is>
       </c>
       <c r="J61">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Comuna 14</t>
+          <t>Comuna 15</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>3 (4.2%)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3434,22 +3434,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4 (2.9%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3 (4.5%)</t>
+          <t>5 (7.6%)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2 (28.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>9 (8.7%)</t>
+          <t>7 (6.8%)</t>
         </is>
       </c>
       <c r="J62">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Comuna 15</t>
+          <t>Comuna 16</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3 (4.2%)</t>
+          <t>4 (5.6%)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3484,22 +3484,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>7 (5.1%)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>5 (7.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>7 (6.8%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="J63">
@@ -3519,37 +3519,37 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Comuna 16</t>
+          <t>Comuna 17</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4 (5.6%)</t>
+          <t>9 (12.5%)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>7 (5.1%)</t>
+          <t>22 (16.2%)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (13.6%)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>11 (10.7%)</t>
         </is>
       </c>
       <c r="J64">
@@ -3569,12 +3569,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Comuna 17</t>
+          <t>Comuna 18</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9 (12.5%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>22 (16.2%)</t>
+          <t>10 (7.4%)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>9 (13.6%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>11 (10.7%)</t>
+          <t>5 (4.9%)</t>
         </is>
       </c>
       <c r="J65">
@@ -3619,27 +3619,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Comuna 18</t>
+          <t>Comuna 19</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>16 (22.2%)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10 (7.4%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>4 (6.1%)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>5 (4.9%)</t>
+          <t>4 (3.9%)</t>
         </is>
       </c>
       <c r="J66">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Comuna 19</t>
+          <t>Comuna 2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>16 (22.2%)</t>
+          <t>12 (16.7%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>9 (6.6%)</t>
+          <t>11 (8.1%)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4 (3.9%)</t>
+          <t>10 (9.7%)</t>
         </is>
       </c>
       <c r="J67">
@@ -3719,27 +3719,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Comuna 2</t>
+          <t>Comuna 20</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12 (16.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6 (12.2%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11 (8.1%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4 (6.1%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>10 (9.7%)</t>
+          <t>4 (3.9%)</t>
         </is>
       </c>
       <c r="J68">
@@ -3769,12 +3769,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Comuna 20</t>
+          <t>Comuna 21</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>4 (6.1%)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>4 (3.9%)</t>
+          <t>8 (7.8%)</t>
         </is>
       </c>
       <c r="J69">
@@ -3819,12 +3819,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Comuna 21</t>
+          <t>Comuna 22</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>7 (9.7%)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4 (6.1%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>8 (7.8%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="J70">
@@ -3869,27 +3869,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Comuna 22</t>
+          <t>Comuna 3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7 (9.7%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>4 (3.9%)</t>
         </is>
       </c>
       <c r="J71">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Comuna 3</t>
+          <t>Comuna 4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>3 (4.5%)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>4 (3.9%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="J72">
@@ -3969,37 +3969,37 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Comuna 4</t>
+          <t>Comuna 5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>3 (4.2%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>3 (4.5%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>10 (9.7%)</t>
         </is>
       </c>
       <c r="J73">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Comuna 5</t>
+          <t>Comuna 6</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4029,27 +4029,27 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>12 (8.8%)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>10 (9.7%)</t>
+          <t>6 (5.8%)</t>
         </is>
       </c>
       <c r="J74">
@@ -4069,12 +4069,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Comuna 6</t>
+          <t>Comuna 7</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3 (4.2%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>12 (8.8%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>4 (6.1%)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>6 (5.8%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="J75">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Comuna 7</t>
+          <t>Comuna 8</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4129,27 +4129,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>4 (6.1%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>3 (2.9%)</t>
         </is>
       </c>
       <c r="J76">
@@ -4169,37 +4169,37 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Comuna 8</t>
+          <t>Comuna 9</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>3 (2.9%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="J77">
@@ -4209,37 +4209,37 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p19comuna</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Comuna donde vive</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Comuna 9</t>
+          <t>Compras y trámites</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>11 (15.3%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4 (2.9%)</t>
+          <t>13 (9.6%)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>17 (25.8%)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4249,11 +4249,11 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>10 (9.7%)</t>
         </is>
       </c>
       <c r="J78">
-        <v>0.0009</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4269,27 +4269,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Compras y trámites</t>
+          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>11 (15.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>13 (9.6%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>17 (25.8%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>10 (9.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="J79">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (otro lugar, niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4334,12 +4334,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cuidado y familia (otro lugar, niños/as o jóvenes)</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4379,17 +4379,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (4.5%)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (9.7%)</t>
         </is>
       </c>
       <c r="J81">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>8 (5.9%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3 (4.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>10 (9.7%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="J82">
@@ -4469,37 +4469,37 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (12.5%)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>14 (28.6%)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2 (1.5%)</t>
+          <t>15 (11.0%)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>20 (30.3%)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>35 (34.0%)</t>
         </is>
       </c>
       <c r="J83">
@@ -4519,37 +4519,37 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Trabajo</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>9 (12.5%)</t>
+          <t>50 (69.4%)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14 (28.6%)</t>
+          <t>29 (59.2%)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>15 (11.0%)</t>
+          <t>92 (67.6%)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>20 (30.3%)</t>
+          <t>23 (34.8%)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>6 (85.7%)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>35 (34.0%)</t>
+          <t>43 (41.7%)</t>
         </is>
       </c>
       <c r="J84">
@@ -4569,37 +4569,37 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Visitas sociales</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>50 (69.4%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>29 (59.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>92 (67.6%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23 (34.8%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6 (85.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>43 (41.7%)</t>
+          <t>3 (2.9%)</t>
         </is>
       </c>
       <c r="J85">
@@ -4609,250 +4609,200 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>p23_agregado</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Visitas sociales</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>43.0 (34.8–56.0)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>60.0 (39.0–66.0)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3 (2.2%)</t>
+          <t>37.0 (28.0–48.0)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>52.0 (36.8–63.8)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>55.0 (53.5–63.5)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>3 (2.9%)</t>
+          <t>50.0 (32.0–60.5)</t>
         </is>
       </c>
       <c r="J86">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Tiempo total de viaje (minutos)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>43.0 (34.8–56.0)</t>
+          <t>30.0 (25.0–60.0)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>60.0 (39.0–66.0)</t>
+          <t>30.0 (20.0–60.0)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>37.0 (28.0–48.0)</t>
+          <t>20.0 (15.0–36.2)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>52.0 (36.8–63.8)</t>
+          <t>22.5 (15.0–30.0)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>55.0 (53.5–63.5)</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>50.0 (32.0–60.5)</t>
+          <t>35.0 (30.0–43.8)</t>
         </is>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p18_p1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>30.0 (25.0–60.0)</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>30.0 (20.0–60.0)</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>20.0 (15.0–36.2)</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>22.5 (15.0–30.0)</t>
+          <t>Minutos caminando hasta el modo de transporte</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>35.0 (30.0–43.8)</t>
+          <t>8.5 (1.8–15.0)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="J88">
-        <v>0.0003</v>
+        <v>0.4885</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p18_p2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Minutos de espera del transporte</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>8.5 (1.8–15.0)</t>
+          <t>30.0 (15.2–45.0)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (10.0–30.0)</t>
         </is>
       </c>
       <c r="J89">
-        <v>0.4885</v>
+        <v>0.5841</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p18_p3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>30.0 (15.2–45.0)</t>
+          <t>40.0 (33.8–45.0)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>20.0 (10.0–30.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="J90">
-        <v>0.5841</v>
+        <v>0.6075</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p18_p4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>Minutos caminando después del descenso</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>40.0 (33.8–45.0)</t>
+          <t>2.5 (0.8–5.5)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="J91">
-        <v>0.6075</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18_c1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2.5 (0.8–5.5)</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>10.0 (5.0–15.0)</t>
-        </is>
-      </c>
-      <c r="J92">
-        <v>0.0201</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>p18_c1</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
           <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>17.5 (10.0–45.0)</t>
         </is>
